--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chele\OneDrive\Documents\UiPath\Academy-REF-CalculateClientSecurityHash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23C9B74-66CF-4F22-A059-B99C8748CD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3716CAB-2C63-4B3D-BE76-58CC2477BCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33630" yWindow="1920" windowWidth="19170" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -166,14 +166,38 @@
     <t>Orchestrator Asset for Acme Web system URL.</t>
   </si>
   <si>
-    <t>ACME_Url</t>
+    <t>ExceptionsEmailAddress</t>
+  </si>
+  <si>
+    <t>Address to send Exception reports to</t>
+  </si>
+  <si>
+    <t>exceptions@acme-test.com</t>
+  </si>
+  <si>
+    <t>SHA1OnlineURL</t>
+  </si>
+  <si>
+    <t>http://www.sha1-online.com/</t>
+  </si>
+  <si>
+    <t>URL to SHA1 Online</t>
+  </si>
+  <si>
+    <t>System1URL</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com</t>
+  </si>
+  <si>
+    <t>URL to ACME Login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -197,6 +221,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -215,10 +245,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -228,8 +259,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -545,7 +578,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -626,7 +659,7 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
@@ -635,9 +668,39 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1628,8 +1691,13 @@
     <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{BDED3C07-35D7-4AB1-8BBE-96394908836D}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{C73CDC48-7168-40AC-AD99-4FC86E97734D}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{6E3A7377-793E-4063-899E-C09C8A5EC929}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1638,7 +1706,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1688,7 +1756,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>22</v>
